--- a/biology/Zoologie/Dybasina/Dybasina.xlsx
+++ b/biology/Zoologie/Dybasina/Dybasina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dybasina est un genre de coléoptères de la famille des Ptiliidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (4 mars 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (4 mars 2021) :
 Dybasina productus (Dybas (d), 1955)</t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Henry S. Dybas, « New feather-wing beetles from termite nests in the American tropics (Coleoptera: Ptiliidae) », Fieldiana: Zoology, Chicago, FMNH, vol. 37, no 21,‎ 1955, p. 561–577 (ISSN 0015-0754 et 2162-4291, OCLC 12919307, DOI 10.5962/BHL.TITLE.3112, lire en ligne)
 Lundgren, R.W, Dybasina, a new name for Termitopteryx Dybas (Coleoptera: Ptiliidae), 1983 (lire en ligne), chap. 37(3), p. 272</t>
